--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Rspo3-Lgr5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Rspo3-Lgr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Lgr5</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,16 +531,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.81743082134232</v>
+        <v>2.822099333333334</v>
       </c>
       <c r="H2">
-        <v>2.81743082134232</v>
+        <v>8.466298</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -543,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.600499873810882</v>
+        <v>0.6233136666666667</v>
       </c>
       <c r="N2">
-        <v>0.600499873810882</v>
+        <v>1.869941</v>
       </c>
       <c r="O2">
-        <v>0.2217057703083433</v>
+        <v>0.1671957790227948</v>
       </c>
       <c r="P2">
-        <v>0.2217057703083433</v>
+        <v>0.1671957790227948</v>
       </c>
       <c r="Q2">
-        <v>1.691866852686953</v>
+        <v>1.759053083157556</v>
       </c>
       <c r="R2">
-        <v>1.691866852686953</v>
+        <v>15.831477748418</v>
       </c>
       <c r="S2">
-        <v>0.2217057703083433</v>
+        <v>0.1671957790227948</v>
       </c>
       <c r="T2">
-        <v>0.2217057703083433</v>
+        <v>0.1671957790227948</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,16 +593,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.81743082134232</v>
+        <v>2.822099333333334</v>
       </c>
       <c r="H3">
-        <v>2.81743082134232</v>
+        <v>8.466298</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -605,34 +611,158 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.10804430605291</v>
+        <v>0.190009</v>
       </c>
       <c r="N3">
-        <v>2.10804430605291</v>
+        <v>0.570027</v>
       </c>
       <c r="O3">
-        <v>0.7782942296916567</v>
+        <v>0.05096744139468926</v>
       </c>
       <c r="P3">
-        <v>0.7782942296916567</v>
+        <v>0.05096744139468926</v>
       </c>
       <c r="Q3">
-        <v>5.939269000628651</v>
+        <v>0.5362242722273334</v>
       </c>
       <c r="R3">
-        <v>5.939269000628651</v>
+        <v>4.826018450046</v>
       </c>
       <c r="S3">
-        <v>0.7782942296916567</v>
+        <v>0.05096744139468926</v>
       </c>
       <c r="T3">
-        <v>0.7782942296916567</v>
+        <v>0.05096744139468926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2.822099333333334</v>
+      </c>
+      <c r="H4">
+        <v>8.466298</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.022719</v>
+      </c>
+      <c r="N4">
+        <v>0.068157</v>
+      </c>
+      <c r="O4">
+        <v>0.006094076075585607</v>
+      </c>
+      <c r="P4">
+        <v>0.006094076075585606</v>
+      </c>
+      <c r="Q4">
+        <v>0.064115274754</v>
+      </c>
+      <c r="R4">
+        <v>0.5770374727859999</v>
+      </c>
+      <c r="S4">
+        <v>0.006094076075585607</v>
+      </c>
+      <c r="T4">
+        <v>0.006094076075585606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.822099333333334</v>
+      </c>
+      <c r="H5">
+        <v>8.466298</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2.892005</v>
+      </c>
+      <c r="N5">
+        <v>8.676015</v>
+      </c>
+      <c r="O5">
+        <v>0.7757427035069303</v>
+      </c>
+      <c r="P5">
+        <v>0.7757427035069303</v>
+      </c>
+      <c r="Q5">
+        <v>8.161525382496666</v>
+      </c>
+      <c r="R5">
+        <v>73.45372844246999</v>
+      </c>
+      <c r="S5">
+        <v>0.7757427035069303</v>
+      </c>
+      <c r="T5">
+        <v>0.7757427035069303</v>
       </c>
     </row>
   </sheetData>
